--- a/QseEvolvingKgWebApp/notes/Aufwand.xlsx
+++ b/QseEvolvingKgWebApp/notes/Aufwand.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evapu\Documents\Wien\TU\WINF\MA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evapu\Documents\GitHub\QseEvolvingKg\QseEvolvingKgWebApp\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B32542-8D6B-4495-B620-011A41855DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE943E0-EF3E-4125-BFDB-D0F217592538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Projekt aufsetzen, Git</t>
+  </si>
+  <si>
+    <t>Proposal aufsetzen, WebApp weitermachen</t>
+  </si>
+  <si>
+    <t>Proposal goals algorithmic, state of the art, evaluation, difference algorithm finden (Jena difference)</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +531,7 @@
       </c>
       <c r="G2">
         <f>SUM(B:B)</f>
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -567,7 +573,7 @@
       </c>
       <c r="G4" s="2">
         <f>G2/G3</f>
-        <v>0.11733333333333333</v>
+        <v>0.13733333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -839,6 +845,28 @@
       </c>
       <c r="C27" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/QseEvolvingKgWebApp/notes/Aufwand.xlsx
+++ b/QseEvolvingKgWebApp/notes/Aufwand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evapu\Documents\GitHub\QseEvolvingKg\QseEvolvingKgWebApp\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE943E0-EF3E-4125-BFDB-D0F217592538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF3732-A1BF-4A67-81A3-7A81E3653285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Proposal goals algorithmic, state of the art, evaluation, difference algorithm finden (Jena difference)</t>
+  </si>
+  <si>
+    <t>Web Versionen</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +534,7 @@
       </c>
       <c r="G2">
         <f>SUM(B:B)</f>
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -573,7 +576,7 @@
       </c>
       <c r="G4" s="2">
         <f>G2/G3</f>
-        <v>0.13733333333333334</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -867,6 +870,17 @@
       </c>
       <c r="C29" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
